--- a/program/results/result_v024_exp/analyze.xlsx
+++ b/program/results/result_v024_exp/analyze.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-232.0725649307964</v>
+        <v>20.04272944187038</v>
       </c>
     </row>
     <row r="2">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.232333925607623</v>
+        <v>0.01244793296603361</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>462.8097703706471</v>
+        <v>23.40637912689947</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.652519893472358</v>
+        <v>0.07475071493961849</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005555230333521233</v>
+        <v>0.006454719804179998</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>91.69171771888678</v>
+        <v>-181.0427143163764</v>
       </c>
     </row>
     <row r="2">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2042087449367208</v>
+        <v>0.1196247964299996</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>363.3053099376667</v>
+        <v>166.9221382084853</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6690933156849423</v>
+        <v>0.31375390803398</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001631172186911556</v>
+        <v>0.001991799212551548</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-600.8838965102333</v>
+        <v>309.4341225619053</v>
       </c>
     </row>
     <row r="2">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4208104037942614</v>
+        <v>0.1961016680935465</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>458.0717306151846</v>
+        <v>105.3851347509192</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6780424983885933</v>
+        <v>0.2798680610918673</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005761923859853191</v>
+        <v>0.03063157894736834</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-381.253637583242</v>
+        <v>319.2348782327272</v>
       </c>
     </row>
     <row r="2">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3382070790371331</v>
+        <v>0.198762205057305</v>
       </c>
     </row>
     <row r="3">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.4172700047905</v>
+        <v>92.77571728644901</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6784565916395493</v>
+        <v>0.2951058201057837</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01030579171486545</v>
+        <v>0.03063157894703794</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-134.3608526993645</v>
+        <v>-9.408099966489237</v>
       </c>
     </row>
     <row r="2">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08200602217461371</v>
+        <v>0.02706254182050443</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.12246569684251</v>
+        <v>55.92155746770899</v>
       </c>
     </row>
     <row r="4">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09597146572811721</v>
+        <v>0.1167534137629465</v>
       </c>
     </row>
     <row r="5">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01290357266713837</v>
+        <v>0.0001550266281042934</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-216.260297059951</v>
+        <v>98.02597678761983</v>
       </c>
     </row>
     <row r="2">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1378731164397797</v>
+        <v>0.05997180392126168</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.012144837748</v>
+        <v>4.586681352371393</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2770880098819342</v>
+        <v>0.06277189795329918</v>
       </c>
     </row>
     <row r="5">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002358557474041456</v>
+        <v>0.03063157894736834</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-304.1930119532057</v>
+        <v>-63.21036425127676</v>
       </c>
     </row>
     <row r="2">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1886843088708755</v>
+        <v>0.03816371745155632</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.60689871218784</v>
+        <v>17.04077397484384</v>
       </c>
     </row>
     <row r="4">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.29551351050629</v>
+        <v>0.05572647700569788</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05572647700569788</v>
+        <v>0.02541122643674132</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-272.7813336549212</v>
+        <v>-18.98323379109939</v>
       </c>
     </row>
     <row r="2">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1696783959379695</v>
+        <v>0.01140768728347212</v>
       </c>
     </row>
     <row r="3">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.53199300698836</v>
+        <v>15.81587787587417</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.261063394876307</v>
+        <v>0.03237902184509311</v>
       </c>
     </row>
     <row r="5">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03237902184509311</v>
+        <v>0.0001099986689083732</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-241.2906904910484</v>
+        <v>65.44624307633849</v>
       </c>
     </row>
     <row r="2">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1520446317406823</v>
+        <v>0.03995283729067516</v>
       </c>
     </row>
     <row r="3">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.66733369299543</v>
+        <v>5.241157598579082</v>
       </c>
     </row>
     <row r="4">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2770880098819342</v>
+        <v>0.04449228929860682</v>
       </c>
     </row>
     <row r="5">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0006203566593738774</v>
+        <v>0.03063157894736834</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-340.004542407905</v>
+        <v>-128.902435816493</v>
       </c>
     </row>
     <row r="2">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2100043652955776</v>
+        <v>0.07816586893556106</v>
       </c>
     </row>
     <row r="3">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.80096284576402</v>
+        <v>24.68984800307442</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2922324689717218</v>
+        <v>0.1013453897977084</v>
       </c>
     </row>
     <row r="5">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1013453897977084</v>
+        <v>0.06198987466877781</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-213.4778576815369</v>
+        <v>63.66001557438985</v>
       </c>
     </row>
     <row r="2">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1339347983932763</v>
+        <v>0.03950141413290016</v>
       </c>
     </row>
     <row r="3">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.45922059572804</v>
+        <v>14.36109468329195</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2549118317206736</v>
+        <v>0.05454678027014537</v>
       </c>
     </row>
     <row r="5">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.221649475828372e-05</v>
+        <v>0.01165397157814674</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-780.2568428152972</v>
+        <v>321.0193881294567</v>
       </c>
     </row>
     <row r="2">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5350688720132017</v>
+        <v>0.1999138212952759</v>
       </c>
     </row>
     <row r="3">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.5474993602771</v>
+        <v>93.69445827539904</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7023809522676235</v>
+        <v>0.2951058189144915</v>
       </c>
     </row>
     <row r="5">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02915592096458575</v>
+        <v>0.03063157894476043</v>
       </c>
     </row>
   </sheetData>

--- a/program/results/result_v024_exp/analyze.xlsx
+++ b/program/results/result_v024_exp/analyze.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>20.04272944187038</v>
+        <v>20.47419660425655</v>
       </c>
     </row>
     <row r="2">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01244793296603361</v>
+        <v>0.01453255622237608</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.40637912689947</v>
+        <v>16.70082900761956</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07475071493961849</v>
+        <v>0.07514281366679776</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-181.0427143163764</v>
+        <v>318.1606184128507</v>
       </c>
     </row>
     <row r="2">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1196247964299996</v>
+        <v>0.3251341102033617</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.9221382084853</v>
+        <v>385.4527671574586</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.31375390803398</v>
+        <v>0.6304746044961775</v>
       </c>
     </row>
     <row r="5">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>309.4341225619053</v>
+        <v>-91.64232908202344</v>
       </c>
     </row>
     <row r="2">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1961016680935465</v>
+        <v>0.2357945552603207</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.3851347509192</v>
+        <v>343.7130612966691</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2798680610918673</v>
+        <v>0.4520123188945545</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03063157894736834</v>
+        <v>0.003849156357176087</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>319.2348782327272</v>
+        <v>208.2737151811991</v>
       </c>
     </row>
     <row r="2">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.198762205057305</v>
+        <v>0.2293730980751994</v>
       </c>
     </row>
     <row r="3">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.77571728644901</v>
+        <v>295.5733358746676</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2951058201057837</v>
+        <v>0.4047345767572024</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03063157894703794</v>
+        <v>0.00124458419222151</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-9.408099966489237</v>
+        <v>-147.3418266824814</v>
       </c>
     </row>
     <row r="2">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02706254182050443</v>
+        <v>0.08669127724055171</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.92155746770899</v>
+        <v>24.63321582815627</v>
       </c>
     </row>
     <row r="4">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1167534137629465</v>
+        <v>0.09597146572811721</v>
       </c>
     </row>
     <row r="5">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001550266281042934</v>
+        <v>0.01340310151342783</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>98.02597678761983</v>
+        <v>102.8718395391555</v>
       </c>
     </row>
     <row r="2">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05997180392126168</v>
+        <v>0.07321520098677602</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.586681352371393</v>
+        <v>8.226919108599137</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06277189795329918</v>
+        <v>0.1053947435092988</v>
       </c>
     </row>
     <row r="5">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-63.21036425127676</v>
+        <v>-12.90298228956702</v>
       </c>
     </row>
     <row r="2">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03816371745155632</v>
+        <v>0.02506163948944515</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.04077397484384</v>
+        <v>42.15091512486014</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02541122643674132</v>
+        <v>3.391194610946613e-05</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-18.98323379109939</v>
+        <v>24.38196130107244</v>
       </c>
     </row>
     <row r="2">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01140768728347212</v>
+        <v>0.02720698524740833</v>
       </c>
     </row>
     <row r="3">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.81587787587417</v>
+        <v>36.1908235953911</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03237902184509311</v>
+        <v>0.07058025902880849</v>
       </c>
     </row>
     <row r="5">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>65.44624307633849</v>
+        <v>72.85547957140325</v>
       </c>
     </row>
     <row r="2">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03995283729067516</v>
+        <v>0.05217842982160895</v>
       </c>
     </row>
     <row r="3">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.241157598579082</v>
+        <v>11.13747089206718</v>
       </c>
     </row>
     <row r="4">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04449228929860682</v>
+        <v>0.08819564810540781</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-128.902435816493</v>
+        <v>-60.47235480513059</v>
       </c>
     </row>
     <row r="2">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07816586893556106</v>
+        <v>0.04299648325967682</v>
       </c>
     </row>
     <row r="3">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.68984800307442</v>
+        <v>56.69202816665335</v>
       </c>
     </row>
     <row r="4">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06198987466877781</v>
+        <v>0.0005377682431209063</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>63.66001557438985</v>
+        <v>96.57085292996432</v>
       </c>
     </row>
     <row r="2">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03950141413290016</v>
+        <v>0.07041612648410833</v>
       </c>
     </row>
     <row r="3">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.36109468329195</v>
+        <v>27.0427914697837</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05454678027014537</v>
+        <v>0.1152351884376968</v>
       </c>
     </row>
     <row r="5">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>321.0193881294567</v>
+        <v>-406.4201669845833</v>
       </c>
     </row>
     <row r="2">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1999138212952759</v>
+        <v>0.4502655382233521</v>
       </c>
     </row>
     <row r="3">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.69445827539904</v>
+        <v>523.5080963287836</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2951058189144915</v>
+        <v>0.6443812231931776</v>
       </c>
     </row>
     <row r="5">
